--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302C52E5-7578-4FDD-8B31-2D0BFE0DA1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6363574-96AF-43A7-9E99-CAEA099D3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>UCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,46 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Troubleshooting and failure are inherent parts of research. Consider the most significant failure in your academic or research career. How did you handle this failure and what helped you cope with it?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undertaking scientific research requires both the ability to collaborate with others and work on a team. Discuss your most important strengths and weaknesses in this arena.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To obtain a Ph.D., you must make an independent intellectual contribution to your chosen scientific field. Describe the most significant intellectual contribution that you have made to a research project thus far.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐信(三封)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Awards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP(Brown Chem)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please list any articles, publications, patents, or creative work.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describe a time when you faced significant challenges or setbacks in pursuing a goal or completing a project. How did you demonstrate grit and perseverance to overcome these obstacles and achieve success?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment on how your previous experiences might connect with Rice’s commitment to nurturing diversity in all facets of our mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP(Rice APP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Academic Statement of Purpose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brown, Rice, Purdue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,7 +120,117 @@
     <t>In their journey to graduate school, some applicants have experienced significant adversity, and worked hard to overcome it. If this applies to you, we welcome you to share about it.</t>
   </si>
   <si>
-    <t>Discuss specific examples of how your background, knowledge, and life experiences would influence your ability to both benefit from and contribute to Brown’s inclusive academic community;</t>
+    <t>ECE剩sop，推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP剩推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chem剩sop，推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐信(三封)</t>
+  </si>
+  <si>
+    <t>问一下申请的项目和funding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请费能waiver吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问一下waiver fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCB, Duke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP,Personal History Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.berkeley.edu/admissions/choosing-your-program/list/</t>
+  </si>
+  <si>
+    <t>gpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue, Rice ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown, Rice App, NTU, NUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personal Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research Proposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awards 副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper 副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福送分：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUS PHY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice ece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown chem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke ece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请费waiver？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,13 +324,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28384</xdr:colOff>
+      <xdr:colOff>75075</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>140747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>484302</xdr:colOff>
+      <xdr:colOff>8423</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76674</xdr:rowOff>
     </xdr:to>
@@ -285,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436840" y="2447291"/>
+          <a:off x="3483531" y="2447291"/>
           <a:ext cx="5900109" cy="1000486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -298,15 +368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>490351</xdr:colOff>
+      <xdr:colOff>569819</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88974</xdr:rowOff>
+      <xdr:rowOff>112413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>627951</xdr:colOff>
+      <xdr:colOff>469202</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>67706</xdr:rowOff>
+      <xdr:rowOff>86383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -329,8 +399,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9053513" y="2395518"/>
-          <a:ext cx="7864897" cy="1043291"/>
+          <a:off x="9422466" y="2418957"/>
+          <a:ext cx="7864897" cy="1038529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2119965</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>439830</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>106853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BCA42-9188-45EA-AE10-578DB6B0D503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3380627" y="8013586"/>
+          <a:ext cx="3978835" cy="2047826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -605,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -618,191 +732,254 @@
     <col min="3" max="3" width="16.06640625" customWidth="1"/>
     <col min="4" max="4" width="16.73046875" customWidth="1"/>
     <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" ht="16.25" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6363574-96AF-43A7-9E99-CAEA099D3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49731BA7-7610-49CD-AECC-CEE64BEAAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2415" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <t>5. Name and briefly describe the content of the three courses you have taken in related technical areas (Computer Science, Mathematics, Statistics, Physics, etc.) that were the most advanced or had the greatest impact on your interest in our graduate program.</t>
   </si>
   <si>
-    <t xml:space="preserve">      2. List programming languages you have used in the past and your proficiency level with each.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Video Introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +227,10 @@
   </si>
   <si>
     <t>申请费waiver？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. List programming languages you have used in the past and your proficiency level with each.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +304,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,6 +445,50 @@
         <a:xfrm>
           <a:off x="3380627" y="8013586"/>
           <a:ext cx="3978835" cy="2047826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>364191</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>166547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A046D495-4E06-4E8E-853E-C496966F00FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7844118" y="8012207"/>
+          <a:ext cx="6200588" cy="1912796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -721,100 +765,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.53125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="16.06640625" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
-    <col min="7" max="7" width="11.06640625" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -822,21 +866,21 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K12" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -844,27 +888,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -872,15 +916,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -888,96 +932,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49731BA7-7610-49CD-AECC-CEE64BEAAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F22B5-0873-440F-898F-2178B10D5E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2415" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5910" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>UCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,34 +79,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. For applicants with work experience post-undergraduate studies, please describe how your work experience prepares you for graduate studies in ways not reflected by your undergraduate academic record.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. For applicants with backgrounds in fields other than Electrical or Computer Engineering, please describe your motivation in changing fields.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Name and briefly describe the content of the three Electrical or Computer Engineering courses you have taken, if any, that were the most advanced or had the greatest impact on your interest in our graduate program.</t>
-  </si>
-  <si>
-    <t>5. Name and briefly describe the content of the three courses you have taken in related technical areas (Computer Science, Mathematics, Statistics, Physics, etc.) that were the most advanced or had the greatest impact on your interest in our graduate program.</t>
-  </si>
-  <si>
     <t>Video Introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>you should also discuss why you are interested in Duke’s ECE PhD program. Description of specific faculty and/or research areas you are interested in is highly recommended. We are looking for applicants with the best fit for our program, so the better you can describe why this is you, the better your chances will be of standing out for admission.</t>
-  </si>
-  <si>
     <t>Life Experiences Statement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please provide a brief statement that highlights the unique life experiences that have shaped your personal and professional identity and prepared you for graduate work. Share how these experiences have influenced your perspectives and your vision for leveraging them to contribute to Duke’s academic community (required - 1 page or less).</t>
-  </si>
-  <si>
     <t>Describe the actions you have taken to make the community more welcoming and accessible to current and prospective members.</t>
   </si>
   <si>
@@ -230,7 +210,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   2. List programming languages you have used in the past and your proficiency level with each.</t>
+    <t>In addition to providing more context regarding your personal, academic, research, and industry background, you should also discuss why you are interested in Duke’s ECE PhD program.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of specific faculty and/or research areas you are interested in is highly recommended. We are looking for applicants with the best fit for our program, so the better you can describe why this is you, the better your chances will be of standing out for admission.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +288,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +358,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>469202</xdr:colOff>
+      <xdr:colOff>473964</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86383</xdr:rowOff>
     </xdr:to>
@@ -418,7 +402,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>439830</xdr:colOff>
+      <xdr:colOff>439829</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>106853</xdr:rowOff>
     </xdr:to>
@@ -464,7 +448,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>364191</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>166547</xdr:rowOff>
+      <xdr:rowOff>171309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,99 +750,99 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -866,21 +850,21 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E9" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K12" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -888,140 +872,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
       <c r="B48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F22B5-0873-440F-898F-2178B10D5E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C9C67C-A4C3-4F1A-8097-E2C600E368B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5910" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>UCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UCB, Duke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP,Personal History Statement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brown, Rice App, NTU, NUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,30 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUS PHY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purdue Phy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice ece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown chem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duke ece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申请费waiver？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +183,98 @@
   </si>
   <si>
     <t>Description of specific faculty and/or research areas you are interested in is highly recommended. We are looking for applicants with the best fit for our program, so the better you can describe why this is you, the better your chances will be of standing out for admission.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Princeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Chem, Rice App, Duke ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷回复：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓励申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good meet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUS,NTU,Brown,Purdue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke,UCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwestern,Cornell,Princeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUHK, CMU,Umich,UCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCB, NTU, NUS,CMU,Umich,Prin,northwestern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwestern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU:2074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phy:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mellon College of Science at CMU values excellence, innovation, being genuine, diversity, respect for others, integrity, trusting, and being trustworthy. Within the context of your experiences, how would you contribute to these values within our community?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe (in one or two paragraphs) a science problem that you encountered during your research experience or course work, and discuss how you solved that particular problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide details for any research projects that you worked on in the past 5 years that includes a short project description, duration and advisor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPA 认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +313,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -286,9 +352,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,6 +372,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -313,8 +386,8 @@
       <xdr:rowOff>140747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8423</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690114</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76674</xdr:rowOff>
     </xdr:to>
@@ -323,7 +396,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2870BB51-E397-4E69-90CB-9C00A6EA491C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -357,8 +430,8 @@
       <xdr:rowOff>112413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>473964</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212494</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86383</xdr:rowOff>
     </xdr:to>
@@ -367,7 +440,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2CA815-F0B0-4EEA-9119-049A7B8CF947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,8 +474,8 @@
       <xdr:rowOff>10718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>439829</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>106853</xdr:rowOff>
     </xdr:to>
@@ -411,7 +484,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BCA42-9188-45EA-AE10-578DB6B0D503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,8 +518,8 @@
       <xdr:rowOff>28016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>364191</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>171309</xdr:rowOff>
     </xdr:to>
@@ -455,7 +528,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A046D495-4E06-4E8E-853E-C496966F00FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,6 +546,363 @@
         <a:xfrm>
           <a:off x="7844118" y="8012207"/>
           <a:ext cx="6200588" cy="1912796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1858309</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>339227</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>65367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect b="14973"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1858309" y="10113310"/>
+          <a:ext cx="3803712" cy="1484778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298824</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431453</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2175809" y="11710147"/>
+          <a:ext cx="3578438" cy="1391397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373530</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>166106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1438088</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>39999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6928971" y="11698827"/>
+          <a:ext cx="5546911" cy="583598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1230406</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>144182</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>33618</xdr:colOff>
+          <xdr:row>86</xdr:row>
+          <xdr:rowOff>29696</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2624045</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>143532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1176618</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>93380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4501030" y="12918238"/>
+          <a:ext cx="1998382" cy="1406613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18678</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1017869</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>41934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895663" y="16566029"/>
+          <a:ext cx="4445000" cy="1433331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433069</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>100662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6555442" y="16388603"/>
+          <a:ext cx="7744906" cy="1314633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466913</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1F3EF7-4D75-42BF-94F6-0E9205F57769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876985" y="14326560"/>
+          <a:ext cx="3912722" cy="2075566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,75 +1176,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -828,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -842,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -853,18 +1303,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K12" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -872,43 +1322,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -916,7 +1366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -924,65 +1374,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>36</v>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -990,5 +1487,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C9C67C-A4C3-4F1A-8097-E2C600E368B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF5FBA-F41C-4682-B940-F9BEDD09FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Purdue, Rice ECE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brown Chem, Rice App, Duke ECE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陶瓷回复：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UCB, NTU, NUS,CMU,Umich,Prin,northwestern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CMU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,6 +263,18 @@
   </si>
   <si>
     <t>GPA 认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue, Rice ECE, Brown Chem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCB,Princeton,Northwestern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU App/ECE ,Umich, Rice App, Duke ECE,NTU,NUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,15 +690,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1230406</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>144182</xdr:rowOff>
+          <xdr:colOff>1152338</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>128588</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>33618</xdr:colOff>
-          <xdr:row>86</xdr:row>
-          <xdr:rowOff>29696</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942788</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>45104</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -885,7 +885,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1F3EF7-4D75-42BF-94F6-0E9205F57769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,91 +1180,91 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="45.265625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" customWidth="1"/>
+    <col min="7" max="7" width="21.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" customWidth="1"/>
+    <col min="9" max="9" width="21.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1303,18 +1303,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E9" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K12" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1322,43 +1322,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1374,17 +1374,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1395,91 +1395,91 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D71" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D72" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D71" s="4" t="s">
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D72" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="D74" s="5"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1492,19 +1492,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>128588</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>42863</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF5FBA-F41C-4682-B940-F9BEDD09FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDBFEE-8AED-4A9E-B115-350E76CCA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>UCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,18 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brown(Chem)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,7 +262,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CMU App/ECE ,Umich, Rice App, Duke ECE,NTU,NUS</t>
+    <t>很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU,Umich, Rice App, Duke ECE,NTU,NUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,14 +683,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1152338</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>128588</xdr:rowOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>121490</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>942788</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>45104</xdr:rowOff>
+          <xdr:colOff>1071376</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>42769</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1181,7 +1173,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1199,83 +1191,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1283,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1300,12 +1283,12 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1316,7 +1299,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1334,28 +1317,28 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1363,25 +1346,25 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1389,81 +1372,84 @@
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D71" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D72" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D73" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
@@ -1471,15 +1457,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1497,13 +1483,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
-                <xdr:rowOff>128588</xdr:rowOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:colOff>1071563</xdr:colOff>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>42863</xdr:rowOff>
               </to>
             </anchor>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDBFEE-8AED-4A9E-B115-350E76CCA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE24749-6CA6-4039-8688-39DDA5AE8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,14 +683,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1152338</xdr:colOff>
-          <xdr:row>74</xdr:row>
-          <xdr:rowOff>121490</xdr:rowOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>16716</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1071376</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>42769</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>88620</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>49960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1483,14 +1483,14 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1071563</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>42863</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>90488</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE24749-6CA6-4039-8688-39DDA5AE8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD511A27-CF28-4891-B234-A7C646D06F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47385" yWindow="7560" windowWidth="20430" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>UCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Academic Statement of Purpose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Personal History Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brown(Chem)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,42 +63,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Life Experiences Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describe the actions you have taken to make the community more welcoming and accessible to current and prospective members.</t>
-  </si>
-  <si>
-    <t>Describe your leadership role in an organization or effort that sought to make a more welcoming, inclusive environment for all potential participants?</t>
-  </si>
-  <si>
-    <t>In their journey to graduate school, some applicants have experienced significant adversity, and worked hard to overcome it. If this applies to you, we welcome you to share about it.</t>
-  </si>
-  <si>
-    <t>ECE剩sop，推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APP剩推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chem剩sop，推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐信(三封)</t>
   </si>
   <si>
-    <t>问一下申请的项目和funding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请费能waiver吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问一下waiver fee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,34 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Personal Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research Proposal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Awards 副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper 副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托福送分：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In addition to providing more context regarding your personal, academic, research, and industry background, you should also discuss why you are interested in Duke’s ECE PhD program.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description of specific faculty and/or research areas you are interested in is highly recommended. We are looking for applicants with the best fit for our program, so the better you can describe why this is you, the better your chances will be of standing out for admission.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Princeton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPA 认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Purdue, Rice ECE, Brown Chem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +190,46 @@
   </si>
   <si>
     <t>CMU,Umich, Rice App, Duke ECE,NTU,NUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE剩推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUS,CUHK,HKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交之前检查一下格式和标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐信，paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐信 professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umich类似，看一下要求说写陶瓷老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +274,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,6 +318,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,50 +344,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>75075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>140747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>690114</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76674</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3483531" y="2447291"/>
-          <a:ext cx="5900109" cy="1000486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>569819</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -423,7 +351,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>212494</xdr:colOff>
+      <xdr:colOff>217256</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86383</xdr:rowOff>
     </xdr:to>
@@ -441,7 +369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -461,146 +389,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2119965</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>10718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>106853</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3380627" y="8013586"/>
-          <a:ext cx="3978835" cy="2047826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466912</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>252132</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7844118" y="8012207"/>
-          <a:ext cx="6200588" cy="1912796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1858309</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>339227</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>65367</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect b="14973"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1858309" y="10113310"/>
-          <a:ext cx="3803712" cy="1484778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>298824</xdr:colOff>
+      <xdr:colOff>303586</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>431453</xdr:colOff>
+      <xdr:colOff>436215</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>149412</xdr:rowOff>
+      <xdr:rowOff>154174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,15 +413,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2175809" y="11710147"/>
-          <a:ext cx="3578438" cy="1391397"/>
+          <a:off x="2068512" y="11728824"/>
+          <a:ext cx="3372997" cy="1396159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,7 +457,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -683,14 +480,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1152338</xdr:colOff>
-          <xdr:row>73</xdr:row>
-          <xdr:rowOff>16716</xdr:rowOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>28669</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>88620</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>771619</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>49960</xdr:rowOff>
+          <xdr:rowOff>78535</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -735,8 +532,8 @@
       <xdr:rowOff>143532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1176618</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4202</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>93380</xdr:rowOff>
     </xdr:to>
@@ -754,7 +551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,138 +560,6 @@
         <a:xfrm>
           <a:off x="4501030" y="12918238"/>
           <a:ext cx="1998382" cy="1406613"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>18678</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>28014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1017869</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>41934</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895663" y="16566029"/>
-          <a:ext cx="4445000" cy="1433331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>433069</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>100662</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6555442" y="16388603"/>
-          <a:ext cx="7744906" cy="1314633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>95089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466913</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>41538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876985" y="14326560"/>
-          <a:ext cx="3912722" cy="2075566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,10 +835,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1191,74 +856,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1266,13 +931,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1283,12 +948,12 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1299,157 +964,110 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D71" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D72" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D73" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
@@ -1457,15 +1075,28 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>49</v>
       </c>
-      <c r="B93" t="s">
-        <v>57</v>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1483,14 +1114,14 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>90488</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>78</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD511A27-CF28-4891-B234-A7C646D06F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B550CB-691D-4654-BAC2-E6E348E606F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47385" yWindow="7560" windowWidth="20430" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>UCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Purdue(Phy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Duke(ece)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Princeton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陶瓷回复：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECE:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phy:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Mellon College of Science at CMU values excellence, innovation, being genuine, diversity, respect for others, integrity, trusting, and being trustworthy. Within the context of your experiences, how would you contribute to these values within our community?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,14 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUS,CUHK,HKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交之前检查一下格式和标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,23 +189,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐信，paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extra information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐信 professor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umich类似，看一下要求说写陶瓷老师</t>
+    <t>申完：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUHK,HKU,NUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>只剩推荐信：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记得update!!!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown,Rice,Purdue,Prin,Umich,Northwestern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE:Personal Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phy:Personal Statement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +248,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -303,25 +288,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,152 +324,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>569819</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>112413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>217256</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86383</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9422466" y="2418957"/>
-          <a:ext cx="7864897" cy="1038529"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>303586</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>436215</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>154174</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2068512" y="11728824"/>
-          <a:ext cx="3372997" cy="1396159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>373530</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>166106</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1438088</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>39999</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6928971" y="11698827"/>
-          <a:ext cx="5546911" cy="583598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1152338</xdr:colOff>
-          <xdr:row>71</xdr:row>
-          <xdr:rowOff>28669</xdr:rowOff>
+          <xdr:colOff>1230406</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>137085</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>771619</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>78535</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>914960</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>82176</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -524,50 +374,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2624045</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>143532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4202</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>93380</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4501030" y="12918238"/>
-          <a:ext cx="1998382" cy="1406613"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -835,268 +641,239 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="45.265625" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="25.73046875" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" customWidth="1"/>
-    <col min="9" max="9" width="21.3984375" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K12" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D71" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D72" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="D74" s="5"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1109,19 +886,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B550CB-691D-4654-BAC2-E6E348E606F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D7271-2680-454A-BB30-EFAE0F486523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
-  <si>
-    <t>UCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>gmail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,13 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOP,Personal History Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.berkeley.edu/admissions/choosing-your-program/list/</t>
-  </si>
-  <si>
     <t>gpa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +115,6 @@
   </si>
   <si>
     <t>CUHK, CMU,Umich,UCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,15 +199,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brown,Rice,Purdue,Prin,Umich,Northwestern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECE:Personal Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phy:Personal Statement</t>
+    <t>可以在sop加上meeting的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown,Rice,Purdue,Prin,Umich,Northwestern,CMU ECE, UCB EECS, CMU Phy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +248,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,10 +274,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -301,9 +291,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,14 +322,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1230406</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>137085</xdr:rowOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>137832</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>914960</xdr:colOff>
-          <xdr:row>87</xdr:row>
-          <xdr:rowOff>82176</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>5043</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>82924</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -644,13 +636,13 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="61.25" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
@@ -663,117 +655,122 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -781,91 +778,64 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
+      <c r="A21" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="4:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -873,7 +843,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +861,13 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>95</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D7271-2680-454A-BB30-EFAE0F486523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD5946-5A87-4FE4-BE5F-258D6637805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5910" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,63 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
-  <si>
-    <t>gmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xzq04100310!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐信(三封)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown(Chem)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice(App,ece)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duke(ece)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP剩推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐信(三封)</t>
-  </si>
-  <si>
-    <t>问一下waiver fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福送分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请费waiver？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陶瓷回复：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,22 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Northwestern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMU:2074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Mellon College of Science at CMU values excellence, innovation, being genuine, diversity, respect for others, integrity, trusting, and being trustworthy. Within the context of your experiences, how would you contribute to these values within our community?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +92,6 @@
   </si>
   <si>
     <t>CMU,Umich, Rice App, Duke ECE,NTU,NUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECE剩推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,7 +132,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brown,Rice,Purdue,Prin,Umich,Northwestern,CMU ECE, UCB EECS, CMU Phy</t>
+    <t>Duke有个video可以搞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown,Rice,Purdue,Prin,Umich,Northwestern,CMU ECE, UCB EECS, CMU Phy,Cornell ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Chem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remind letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umich Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwestern Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCB EECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornell ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Princeton ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best effort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTU Phy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,12 +307,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -292,10 +318,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,15 +353,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1230406</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>137832</xdr:rowOff>
+          <xdr:colOff>1113491</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>55469</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>5043</xdr:colOff>
-          <xdr:row>101</xdr:row>
-          <xdr:rowOff>82924</xdr:rowOff>
+          <xdr:colOff>1140758</xdr:colOff>
+          <xdr:row>99</xdr:row>
+          <xdr:rowOff>560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -636,214 +668,294 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="61.25" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="74.86328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>12.15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>12.31</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>12.15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>12.15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D14">
+        <v>12.15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>12.6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>12.15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>12.15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>12.9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>12.15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>12.2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D76" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="79" spans="4:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="D79" s="4"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -856,19 +968,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>1143000</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD5946-5A87-4FE4-BE5F-258D6637805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB78570-1700-493E-8FCF-10E8E4205E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5910" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1193" yWindow="0" windowWidth="20490" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,29 @@
   </si>
   <si>
     <t>NTU Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√(字数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume 更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umich ECE?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,15 +376,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1113491</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>55469</xdr:rowOff>
+          <xdr:colOff>1075765</xdr:colOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>168649</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>1140758</xdr:colOff>
-          <xdr:row>99</xdr:row>
-          <xdr:rowOff>560</xdr:rowOff>
+          <xdr:colOff>1236382</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>123265</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -667,8 +690,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -787,6 +810,9 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
@@ -795,6 +821,9 @@
       <c r="D10">
         <v>12.15</v>
       </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
@@ -804,6 +833,9 @@
         <v>12.31</v>
       </c>
       <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
@@ -815,6 +847,9 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
@@ -826,6 +861,9 @@
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
@@ -836,6 +874,9 @@
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -918,7 +959,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D29" s="2"/>
@@ -972,15 +1027,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>166688</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1143000</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB78570-1700-493E-8FCF-10E8E4205E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4D3B1-C543-4AEB-BCAC-F904DF1CBC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1193" yWindow="0" windowWidth="20490" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,26 @@
   </si>
   <si>
     <t>Umich ECE?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像要先提交Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>× ECE第三段不对，check一下后面的所有ece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(ORIGIN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√(need check again)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,15 +396,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1075765</xdr:colOff>
+          <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>168649</xdr:rowOff>
+          <xdr:rowOff>166687</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>1236382</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>557213</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>123265</xdr:rowOff>
+          <xdr:rowOff>61912</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -690,8 +710,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -701,7 +721,7 @@
     <col min="3" max="3" width="16.1328125" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" customWidth="1"/>
     <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="43.06640625" customWidth="1"/>
     <col min="7" max="7" width="21.73046875" customWidth="1"/>
     <col min="8" max="8" width="15.46484375" customWidth="1"/>
     <col min="9" max="9" width="17.265625" customWidth="1"/>
@@ -822,7 +842,7 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -889,6 +909,9 @@
       <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
@@ -900,6 +923,9 @@
       <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
@@ -911,6 +937,9 @@
       <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -923,6 +952,9 @@
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
@@ -933,6 +965,9 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -946,6 +981,9 @@
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
@@ -962,6 +1000,9 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1032,10 +1073,10 @@
                 <xdr:rowOff>166688</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>557213</xdr:colOff>
                 <xdr:row>96</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>61913</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4D3B1-C543-4AEB-BCAC-F904DF1CBC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F79F50-BEF3-4985-A10F-F2C704B3BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,19 +263,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>× ECE第三段不对，check一下后面的所有ece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check(ORIGIN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√(need check again)</t>
+    <t>Cornell Phy?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,8 +357,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,13 +386,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>166687</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>61912</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -710,25 +698,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="74.86328125" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="43.06640625" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="74.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="43.125" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -736,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -756,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -773,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -781,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -789,12 +777,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -820,7 +808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -834,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>33</v>
       </c>
@@ -842,10 +830,10 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -857,7 +845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -871,7 +859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -885,7 +873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -899,7 +887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -913,7 +901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>37</v>
       </c>
@@ -924,10 +912,10 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -942,7 +930,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -953,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -967,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>47</v>
@@ -982,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
         <v>48</v>
@@ -997,7 +985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -1005,24 +993,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1030,26 +1023,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="4:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D79" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -1070,13 +1063,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1076325</xdr:colOff>
                 <xdr:row>90</xdr:row>
-                <xdr:rowOff>166688</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>557213</xdr:colOff>
+                <xdr:colOff>561975</xdr:colOff>
                 <xdr:row>96</xdr:row>
-                <xdr:rowOff>61913</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F79F50-BEF3-4985-A10F-F2C704B3BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2759F9B-F077-40BD-9641-0075442E4310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="105" windowWidth="21825" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,18 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remind letter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rice ECE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Purdue Phy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Umich Phy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√(字数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resume 更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +252,57 @@
   </si>
   <si>
     <t>Cornell Phy?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.graduateschool.brown.edu/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradadmissions.rice.edu/apply/</t>
+  </si>
+  <si>
+    <t>https://gradapply.purdue.edu/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://graduate-apply.princeton.edu/account</t>
+  </si>
+  <si>
+    <t>https://rackham.umich.edu/admissions/applying/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/nugrad/index.ftl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradadmissions.engineering.cmu.edu/account</t>
+  </si>
+  <si>
+    <t>https://apply-dc-mcs.mcs.cmu.edu/account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradapp.berkeley.edu/apply/</t>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/forms/cornellg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Essay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://applygp.duke.edu/apply</t>
+  </si>
+  <si>
+    <t>Submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue Phy, ECE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,8 +428,8 @@
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>96</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -698,21 +737,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="74.875" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="43.125" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,10 +844,13 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -819,35 +861,71 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>12.15</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>12.31</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>12.15</v>
@@ -856,83 +934,155 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>12.15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>12.15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>12.6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>12.15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>12.15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>12.9</v>
@@ -941,27 +1091,44 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>12.15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>12.2</v>
@@ -970,42 +1137,45 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1049,15 +1219,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{BE3DC06D-6824-461D-AB27-166D1660403F}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{1E03EADD-9CC6-4178-896B-0846FEE649DA}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{71160C9C-5DF9-4164-9664-410AD8C79608}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{9E80CF1F-4846-481C-90C1-3E49F63E4559}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{1F7D1735-CF8A-4469-8E30-EED0487DEBE5}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{D9E77F60-50C8-4E5B-9AE4-297BBFA595C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId10" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -1066,8 +1244,8 @@
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>96</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -1076,7 +1254,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1025" r:id="rId10" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2759F9B-F077-40BD-9641-0075442E4310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26044726-BA07-417B-B95A-6001A2BA0C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="105" windowWidth="21825" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43110" yWindow="6780" windowWidth="18060" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Video Essay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://applygp.duke.edu/apply</t>
   </si>
   <si>
@@ -303,6 +299,14 @@
   </si>
   <si>
     <t>Purdue Phy, ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inform taoci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,8 +400,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,15 +427,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1076325</xdr:colOff>
-          <xdr:row>90</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -737,25 +741,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="72.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="72.46484375" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="27.73046875" customWidth="1"/>
+    <col min="7" max="7" width="21.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -763,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -783,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -800,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -808,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -816,12 +820,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -844,10 +848,13 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
@@ -872,8 +879,11 @@
       <c r="I9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -895,8 +905,11 @@
       <c r="I10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -919,13 +932,16 @@
       <c r="I11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>12.15</v>
@@ -945,8 +961,11 @@
       <c r="I12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -971,8 +990,11 @@
       <c r="I13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
@@ -997,8 +1019,11 @@
       <c r="I14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
@@ -1023,8 +1048,11 @@
       <c r="I15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -1049,8 +1077,11 @@
       <c r="I16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
@@ -1075,9 +1106,12 @@
       <c r="I17" t="s">
         <v>48</v>
       </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -1102,8 +1136,11 @@
       <c r="I18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
@@ -1120,12 +1157,21 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -1140,10 +1186,19 @@
         <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
         <v>46</v>
@@ -1155,7 +1210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>51</v>
       </c>
@@ -1163,29 +1218,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D30" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1193,26 +1248,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D76" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="4:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D79" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -1239,15 +1294,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26044726-BA07-417B-B95A-6001A2BA0C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84DF01-37F2-4664-BD23-DC0651D7E460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43110" yWindow="6780" windowWidth="18060" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44850" yWindow="7020" windowWidth="23535" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,14 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resume 更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Umich ECE?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,6 +299,38 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUHK EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKU Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">toefl 14 work day </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5√good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUS Phy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,15 +451,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>1035984</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>30816</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>87</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>449637</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>132229</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -739,10 +763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -757,9 +781,11 @@
     <col min="8" max="8" width="15.46484375" customWidth="1"/>
     <col min="9" max="9" width="21.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.73046875" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -767,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -787,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -804,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -812,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -820,12 +846,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -833,414 +859,535 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>12.15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>12.15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
-        <v>12.31</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12">
-        <v>12.15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13">
-        <v>12.15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14">
-        <v>12.15</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
-        <v>12.6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16">
-        <v>12.15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17">
-        <v>12.15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18">
-        <v>12.9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19">
-        <v>12.15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20">
-        <v>12.2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>12.15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>12.15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>12.31</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>12.15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>12.15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>12.15</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>12.6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>12.15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>12.15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>12.9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>12.15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>12.2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="76" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D76" s="2" t="s">
         <v>10</v>
@@ -1295,14 +1442,14 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84DF01-37F2-4664-BD23-DC0651D7E460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BEB86-F116-4FE8-9F0C-70D8DD432F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44850" yWindow="7020" windowWidth="23535" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45480" yWindow="19275" windowWidth="23535" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>CMU,Umich, Rice App, Duke ECE,NTU,NUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交之前检查一下格式和标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,14 +448,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1035984</xdr:colOff>
-          <xdr:row>77</xdr:row>
-          <xdr:rowOff>30816</xdr:rowOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>27175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>449637</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>132229</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1011891</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>154362</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -765,9 +761,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -786,9 +780,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A1" s="4"/>
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -832,233 +824,236 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>12.12</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>30</v>
       </c>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>12.15</v>
@@ -1067,71 +1062,71 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>12.15</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>12.31</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32">
         <v>12.15</v>
@@ -1140,154 +1135,154 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>12.15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>12.15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>12.6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>12.15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>12.15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>12.9</v>
@@ -1296,50 +1291,50 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>12.15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>12.2</v>
@@ -1348,43 +1343,43 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
         <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
@@ -1416,7 +1411,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1442,14 +1437,14 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>77</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BEB86-F116-4FE8-9F0C-70D8DD432F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60145FBE-343C-4894-A14F-2DC1F05BA6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45480" yWindow="19275" windowWidth="23535" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,14 +448,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1035984</xdr:colOff>
-          <xdr:row>72</xdr:row>
-          <xdr:rowOff>27175</xdr:rowOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>90207</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1011891</xdr:colOff>
-          <xdr:row>74</xdr:row>
-          <xdr:rowOff>154362</xdr:rowOff>
+          <xdr:colOff>164166</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>12607</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -761,7 +761,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1437,14 +1439,14 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>90488</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1009650</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60145FBE-343C-4894-A14F-2DC1F05BA6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32C215-DE56-42B8-9127-C5A00D73623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">toefl 14 work day </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.5√good</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>NUS Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12√ pre interview?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,14 +448,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1035984</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>90207</xdr:rowOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>44544</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>164166</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>12607</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1196509</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>151839</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -761,8 +761,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -771,7 +771,7 @@
     <col min="2" max="2" width="72.46484375" customWidth="1"/>
     <col min="3" max="3" width="16.1328125" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" customWidth="1"/>
     <col min="6" max="6" width="27.73046875" customWidth="1"/>
     <col min="7" max="7" width="21.73046875" customWidth="1"/>
     <col min="8" max="8" width="15.46484375" customWidth="1"/>
@@ -856,7 +856,7 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -969,7 +969,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -1003,7 +1003,7 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1016,13 +1016,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23">
-        <v>12.12</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1439,14 +1439,14 @@
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>90488</xdr:rowOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>42863</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/assets/Apply/application.xlsx
+++ b/assets/Apply/application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzqte\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telux\Documents\GitHub\k-telux.github.io\assets\Apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84DF01-37F2-4664-BD23-DC0651D7E460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE5F52-403E-480B-95CD-BE736C3C5F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44850" yWindow="7020" windowWidth="23535" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>NTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,14 @@
   </si>
   <si>
     <t>NUS Phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2502003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2502112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,8 +432,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,15 +459,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1035984</xdr:colOff>
-          <xdr:row>77</xdr:row>
-          <xdr:rowOff>30816</xdr:rowOff>
+          <xdr:colOff>965947</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>27641</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>449637</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>132229</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1194547</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>127747</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -765,27 +773,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="72.46484375" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="27.73046875" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.73046875" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -793,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -813,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -830,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -838,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -846,12 +854,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -868,7 +876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
@@ -879,7 +887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -890,7 +898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -901,7 +909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
@@ -912,7 +920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -923,7 +931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -934,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
@@ -945,7 +953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -956,7 +964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
@@ -967,7 +975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -978,7 +986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
@@ -989,7 +997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
         <v>67</v>
@@ -1012,7 +1020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>68</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>74</v>
       </c>
@@ -1028,9 +1036,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -1056,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>39</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>40</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>36</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -1382,12 +1390,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1395,26 +1403,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="4:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="D79" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -1441,15 +1458,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>965200</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1193800</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
